--- a/DOCs/BurnDownTeam2Wk2Sprint2.xlsx
+++ b/DOCs/BurnDownTeam2Wk2Sprint2.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECD12B5F-45A9-43A6-A14C-C63B73A10E8A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6735EF2-3050-458E-B491-C97E787F49F0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36531" yWindow="1303" windowWidth="24686" windowHeight="13148" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2640" yWindow="2640" windowWidth="24686" windowHeight="13149" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -360,7 +360,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>BURN DOWN CHART      6733 Team2 Sprint1</a:t>
+              <a:t>BURN DOWN CHART      6733 Team2 Sprint2</a:t>
             </a:r>
           </a:p>
         </c:rich>
